--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_10.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33113-d1209358-Reviews-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Americas-Best-Value-Inn-South-GateDowney.h2385108.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_10.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_10.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="195">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,463 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r412932944-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>33113</t>
+  </si>
+  <si>
+    <t>1209358</t>
+  </si>
+  <si>
+    <t>412932944</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>#2 worst in my life</t>
+  </si>
+  <si>
+    <t>Drugs, crime, and prostitution, what more can I say.  Wow the area is all industrial and poor.  The front desk people are very nice and helpful, but very dangerous area.  Missing toilet paper rolls, thin towels and smelly room.  Noise all nite long on both sides of us.  Clean and comfortable bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Americas Best Value Inn South Gate, responded to this reviewResponded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Drugs, crime, and prostitution, what more can I say.  Wow the area is all industrial and poor.  The front desk people are very nice and helpful, but very dangerous area.  Missing toilet paper rolls, thin towels and smelly room.  Noise all nite long on both sides of us.  Clean and comfortable bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r391335644-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>391335644</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>The Oasis of the Area, Professional &amp; Accommodating Staff</t>
+  </si>
+  <si>
+    <t>"It was a long and hard week of activity during my visit to California. This was my last night before returning to NY. After checking out many hotels in the area, I was convinced that I had to travel far from West Gate to find something even remotely decent. Once America's Best Value Inn in South Gate was discovered, Akunna, the sales associate made it easy to de-stress. We doubted all of these positive reviews and requested that we be allowed to check out the room before actually paying for it. My mom, a particularly harsh critic was happy to have me continue with the transaction! The staff was great, our room at the America's Best Value Inn &amp; Suites was clean and cozy! The location is at the heart of everything! 
+We probably would not even have gotten that far if it were not for Akunna's excellent deployment of professionalism and warm hospitable nature. Her calming voice made it impossible to continue being stressed and we quickly realized that we were even more tired than we thought! We were not going anywhere else! We would not be surprised if one day she takes on a corporate role!
+So don't be discourage and leave South Gate after being disappointed by the plethora of low-budge, lack luster rip-offs in the area. America's Best Value Inn &amp; Suites is the only Oasis of the Area! Thanks to Akunna and the rest of..."It was a long and hard week of activity during my visit to California. This was my last night before returning to NY. After checking out many hotels in the area, I was convinced that I had to travel far from West Gate to find something even remotely decent. Once America's Best Value Inn in South Gate was discovered, Akunna, the sales associate made it easy to de-stress. We doubted all of these positive reviews and requested that we be allowed to check out the room before actually paying for it. My mom, a particularly harsh critic was happy to have me continue with the transaction! The staff was great, our room at the America's Best Value Inn &amp; Suites was clean and cozy! The location is at the heart of everything! We probably would not even have gotten that far if it were not for Akunna's excellent deployment of professionalism and warm hospitable nature. Her calming voice made it impossible to continue being stressed and we quickly realized that we were even more tired than we thought! We were not going anywhere else! We would not be surprised if one day she takes on a corporate role! So don't be discourage and leave South Gate after being disappointed by the plethora of low-budge, lack luster rip-offs in the area. America's Best Value Inn &amp; Suites is the only Oasis of the Area! Thanks to Akunna and the rest of the staff, our stay was comfortable, easy going and worth it!"Sincerely, J'MarMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at Americas Best Value Inn South Gate, responded to this reviewResponded July 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2016</t>
+  </si>
+  <si>
+    <t>"It was a long and hard week of activity during my visit to California. This was my last night before returning to NY. After checking out many hotels in the area, I was convinced that I had to travel far from West Gate to find something even remotely decent. Once America's Best Value Inn in South Gate was discovered, Akunna, the sales associate made it easy to de-stress. We doubted all of these positive reviews and requested that we be allowed to check out the room before actually paying for it. My mom, a particularly harsh critic was happy to have me continue with the transaction! The staff was great, our room at the America's Best Value Inn &amp; Suites was clean and cozy! The location is at the heart of everything! 
+We probably would not even have gotten that far if it were not for Akunna's excellent deployment of professionalism and warm hospitable nature. Her calming voice made it impossible to continue being stressed and we quickly realized that we were even more tired than we thought! We were not going anywhere else! We would not be surprised if one day she takes on a corporate role!
+So don't be discourage and leave South Gate after being disappointed by the plethora of low-budge, lack luster rip-offs in the area. America's Best Value Inn &amp; Suites is the only Oasis of the Area! Thanks to Akunna and the rest of..."It was a long and hard week of activity during my visit to California. This was my last night before returning to NY. After checking out many hotels in the area, I was convinced that I had to travel far from West Gate to find something even remotely decent. Once America's Best Value Inn in South Gate was discovered, Akunna, the sales associate made it easy to de-stress. We doubted all of these positive reviews and requested that we be allowed to check out the room before actually paying for it. My mom, a particularly harsh critic was happy to have me continue with the transaction! The staff was great, our room at the America's Best Value Inn &amp; Suites was clean and cozy! The location is at the heart of everything! We probably would not even have gotten that far if it were not for Akunna's excellent deployment of professionalism and warm hospitable nature. Her calming voice made it impossible to continue being stressed and we quickly realized that we were even more tired than we thought! We were not going anywhere else! We would not be surprised if one day she takes on a corporate role! So don't be discourage and leave South Gate after being disappointed by the plethora of low-budge, lack luster rip-offs in the area. America's Best Value Inn &amp; Suites is the only Oasis of the Area! Thanks to Akunna and the rest of the staff, our stay was comfortable, easy going and worth it!"Sincerely, J'MarMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r390588160-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>390588160</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Good motel</t>
+  </si>
+  <si>
+    <t>Very friendly , thank you Akouna and other employees Room clean, comfortable and fridge on demandCoffee and donuts saturday and sundayGood localisation near freeway, commercial area and south gate parkMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Very friendly , thank you Akouna and other employees Room clean, comfortable and fridge on demandCoffee and donuts saturday and sundayGood localisation near freeway, commercial area and south gate parkMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r323708296-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>323708296</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Pleasant enough for a base for a few days</t>
+  </si>
+  <si>
+    <t>Booked this accommodation after reading others reviews on trip advisor. The hotel was ideally placed south of LA and a short distance from the airport. The volume of traffic led to serious traffic jams and it took 1.5hrs to travel the 15 or so miles at 6pm. The staff were friendly, polite and helpful. The room looked like it had been refurbished and was clean, spacious and served it's purpose. The downside was the amount of loud traffic on the adjoining road which went on throughout the whole night. We had breakfast included in the price however this was very disappointing as it consisted of a thermos of either tepid or cold coffee and a plate of stale pastries served in the foyer. Luckily there were places nearby to get some breakfast. The rooms would benefit from tea/coffee facilities.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Booked this accommodation after reading others reviews on trip advisor. The hotel was ideally placed south of LA and a short distance from the airport. The volume of traffic led to serious traffic jams and it took 1.5hrs to travel the 15 or so miles at 6pm. The staff were friendly, polite and helpful. The room looked like it had been refurbished and was clean, spacious and served it's purpose. The downside was the amount of loud traffic on the adjoining road which went on throughout the whole night. We had breakfast included in the price however this was very disappointing as it consisted of a thermos of either tepid or cold coffee and a plate of stale pastries served in the foyer. Luckily there were places nearby to get some breakfast. The rooms would benefit from tea/coffee facilities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r312420632-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>312420632</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Not recommended</t>
+  </si>
+  <si>
+    <t>This place is falling apart, room number missing from door, cigarette burn holes in bedspread, sheets paper thin, pillows lumpy, scum on counter in bathroom, toilet paper one ply and thin, towels were dingy and thin... no refrigerator or microwave.  Microwave in office broken. Dirty sidewalks, needed sweeping (ie: cigarette butts, leaves) light fixture in bathroom dangling. Breakfast non existent.  Noise from passing trucks and motorcycles ran late into the night. Old out of date TV.   We were planning a two night stay, but did spend one night as we did not want to lose our money.  Cancelled second night and  booked something much nicer for less money . This place needs some serious help. It is overpriced and does not resemble the image projected on the internet site.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>This place is falling apart, room number missing from door, cigarette burn holes in bedspread, sheets paper thin, pillows lumpy, scum on counter in bathroom, toilet paper one ply and thin, towels were dingy and thin... no refrigerator or microwave.  Microwave in office broken. Dirty sidewalks, needed sweeping (ie: cigarette butts, leaves) light fixture in bathroom dangling. Breakfast non existent.  Noise from passing trucks and motorcycles ran late into the night. Old out of date TV.   We were planning a two night stay, but did spend one night as we did not want to lose our money.  Cancelled second night and  booked something much nicer for less money . This place needs some serious help. It is overpriced and does not resemble the image projected on the internet site.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r295397276-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>295397276</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Nice place, friendly staff</t>
+  </si>
+  <si>
+    <t>We booked for one night for a weekend getaway. The hotel grounds were very clean, neat and welcoming. There was a glitch in our reservation, but the young woman behind the counter handled it well and offered us an upgrade for our troubles. She was very nice and polite about it all. The new upgrades happening are visible and nice and I feel will add to another persons stay in the future. Maybe even us!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r269982643-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>269982643</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>Recent Overall Wonderful Stay</t>
+  </si>
+  <si>
+    <t>On a recent trip to the Long Beach, CA area to attend the AAHOA National Conference I had the opportunity to spend 3 nights &amp; 4 days at the ABVI Southgate. The overall property was inviting, room nicely appointed &amp; very clean. The staff was in all respects friendly &amp; very helpful. Truly made me feel at home. Property centrally located for the LA area &amp; well priced for the guest. Thank you to all &amp; don't miss the opportunity to be their GUEST!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Timesh_p, General Manager at Americas Best Value Inn South Gate, responded to this reviewResponded May 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2015</t>
+  </si>
+  <si>
+    <t>On a recent trip to the Long Beach, CA area to attend the AAHOA National Conference I had the opportunity to spend 3 nights &amp; 4 days at the ABVI Southgate. The overall property was inviting, room nicely appointed &amp; very clean. The staff was in all respects friendly &amp; very helpful. Truly made me feel at home. Property centrally located for the LA area &amp; well priced for the guest. Thank you to all &amp; don't miss the opportunity to be their GUEST!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r269844165-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>269844165</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>CONTINUES TO BE HIDDEN GEM IN L.A.</t>
+  </si>
+  <si>
+    <t>Stayed for 4 nights, and as usual, the stay was great! The owners/managers, Nick and Nita, are always welcoming and very accommodating. The room was clean, spacious, comfortable, and safe.The hotel has a continental breakfast and there is a coffee shop,Tiera Mia, adjacent to the hotel. Also, a Walmart, TGI Fridays, Chipolte Restaurant, Target, Habit Grill,Panda Express, and many shops within walking distance as well as the Metro Bus line footsteps away. This small hotel is tucked away right next to the I710 freeway at within a 1/4 mile of the Firestone exit at South Gate! Thanks again for a great stay! Will be back! When travelling a 120+ nights per year it's great to stay with people who care!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Timesh_p, Manager at Americas Best Value Inn South Gate, responded to this reviewResponded May 12, 2015</t>
+  </si>
+  <si>
+    <t>Stayed for 4 nights, and as usual, the stay was great! The owners/managers, Nick and Nita, are always welcoming and very accommodating. The room was clean, spacious, comfortable, and safe.The hotel has a continental breakfast and there is a coffee shop,Tiera Mia, adjacent to the hotel. Also, a Walmart, TGI Fridays, Chipolte Restaurant, Target, Habit Grill,Panda Express, and many shops within walking distance as well as the Metro Bus line footsteps away. This small hotel is tucked away right next to the I710 freeway at within a 1/4 mile of the Firestone exit at South Gate! Thanks again for a great stay! Will be back! When travelling a 120+ nights per year it's great to stay with people who care!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r250430249-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>250430249</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>Disappointed - January 2015</t>
+  </si>
+  <si>
+    <t>While the office staff when we checked-in was very nice, this place really needs some upkeep.  Sheets seemed clean and the beds were comfortable, but there was a dark stain on one of the bed skirts.  We were on the 2nd floor and there was a hole in the flooring near top of stairway that really should have had caution tape or something around it. The 2nd lock at the top of our door was broken.  We mentioned this when we went to ask for tissues and more toilet paper and was told "but the deadbolt works." The bathroom sink had no plug, towels were extremely dingy and very badly frayed.  Tissues were the thinnest we have ever seen.  The toilet paper holder was broken.  No clock in the room.  There was a nice little table &amp; 2 chairs, a chest to put a suitcase on and a TV. They also have free wifi.  There was also a fridge but we didn't realize it was unplugged until the morning so we had to throw away food we had put in it. The office is locked at night so when we checked out at 8am we had to ring the buzzer then stand outside and wait for someone in their bathrobe to come to the locked window so we could return our key cards.  The Tierra Mia coffee shop next door was great.  The price was "right" for a one night...While the office staff when we checked-in was very nice, this place really needs some upkeep.  Sheets seemed clean and the beds were comfortable, but there was a dark stain on one of the bed skirts.  We were on the 2nd floor and there was a hole in the flooring near top of stairway that really should have had caution tape or something around it. The 2nd lock at the top of our door was broken.  We mentioned this when we went to ask for tissues and more toilet paper and was told "but the deadbolt works." The bathroom sink had no plug, towels were extremely dingy and very badly frayed.  Tissues were the thinnest we have ever seen.  The toilet paper holder was broken.  No clock in the room.  There was a nice little table &amp; 2 chairs, a chest to put a suitcase on and a TV. They also have free wifi.  There was also a fridge but we didn't realize it was unplugged until the morning so we had to throw away food we had put in it. The office is locked at night so when we checked out at 8am we had to ring the buzzer then stand outside and wait for someone in their bathrobe to come to the locked window so we could return our key cards.  The Tierra Mia coffee shop next door was great.  The price was "right" for a one night stay here but this place needs to work on their maintenance.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>While the office staff when we checked-in was very nice, this place really needs some upkeep.  Sheets seemed clean and the beds were comfortable, but there was a dark stain on one of the bed skirts.  We were on the 2nd floor and there was a hole in the flooring near top of stairway that really should have had caution tape or something around it. The 2nd lock at the top of our door was broken.  We mentioned this when we went to ask for tissues and more toilet paper and was told "but the deadbolt works." The bathroom sink had no plug, towels were extremely dingy and very badly frayed.  Tissues were the thinnest we have ever seen.  The toilet paper holder was broken.  No clock in the room.  There was a nice little table &amp; 2 chairs, a chest to put a suitcase on and a TV. They also have free wifi.  There was also a fridge but we didn't realize it was unplugged until the morning so we had to throw away food we had put in it. The office is locked at night so when we checked out at 8am we had to ring the buzzer then stand outside and wait for someone in their bathrobe to come to the locked window so we could return our key cards.  The Tierra Mia coffee shop next door was great.  The price was "right" for a one night...While the office staff when we checked-in was very nice, this place really needs some upkeep.  Sheets seemed clean and the beds were comfortable, but there was a dark stain on one of the bed skirts.  We were on the 2nd floor and there was a hole in the flooring near top of stairway that really should have had caution tape or something around it. The 2nd lock at the top of our door was broken.  We mentioned this when we went to ask for tissues and more toilet paper and was told "but the deadbolt works." The bathroom sink had no plug, towels were extremely dingy and very badly frayed.  Tissues were the thinnest we have ever seen.  The toilet paper holder was broken.  No clock in the room.  There was a nice little table &amp; 2 chairs, a chest to put a suitcase on and a TV. They also have free wifi.  There was also a fridge but we didn't realize it was unplugged until the morning so we had to throw away food we had put in it. The office is locked at night so when we checked out at 8am we had to ring the buzzer then stand outside and wait for someone in their bathrobe to come to the locked window so we could return our key cards.  The Tierra Mia coffee shop next door was great.  The price was "right" for a one night stay here but this place needs to work on their maintenance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r215458863-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>215458863</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>A Little Gem in Los Angeles Area</t>
+  </si>
+  <si>
+    <t>This hotel is convenietly located within 3 blocks of I710 for easy access. I have stayed here many times, and the rooms are like new. The bedding is in excellent shape, new air conditioning units, and overall new "feel". It is very value priced for Los Angeles/South Gate market. There is a Walmart and CVS pharmacy within walking distance as well. To be adjacent to the road...the property is very quite.This property is managed by a husband and wife team, Nick and Nita. They have both always made us feel welcome, and they have always got us into a room even on busy weekends at last minute. There is a coffee shop next door..Tierra Mia, and several restaraunts to choose nearby.The housekeepers clean well, and I would say that this is definitely one of the best Americas Best Value Inns we have ran across in their chain. It is very comparable to a Comfort Inn or  Ramada Limited. Keep up the great work! My partner and I agree that this is definitely one of the better deals for LA Area.Will definitely return when in this area. cc: Americas Best Value InnsMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>This hotel is convenietly located within 3 blocks of I710 for easy access. I have stayed here many times, and the rooms are like new. The bedding is in excellent shape, new air conditioning units, and overall new "feel". It is very value priced for Los Angeles/South Gate market. There is a Walmart and CVS pharmacy within walking distance as well. To be adjacent to the road...the property is very quite.This property is managed by a husband and wife team, Nick and Nita. They have both always made us feel welcome, and they have always got us into a room even on busy weekends at last minute. There is a coffee shop next door..Tierra Mia, and several restaraunts to choose nearby.The housekeepers clean well, and I would say that this is definitely one of the best Americas Best Value Inns we have ran across in their chain. It is very comparable to a Comfort Inn or  Ramada Limited. Keep up the great work! My partner and I agree that this is definitely one of the better deals for LA Area.Will definitely return when in this area. cc: Americas Best Value InnsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r215456388-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>215456388</t>
+  </si>
+  <si>
+    <t>Nice and clean Motel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They were very co-operative as the reservation over Budgetplaces went wrong for some reasons.The rooms are clean and spacious and the beds are comfortable.I can really recomend to stay there when you need a good place to sleep after a long day in LA, Universal Studios etc. </t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r209165454-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>209165454</t>
+  </si>
+  <si>
+    <t>06/06/2014</t>
+  </si>
+  <si>
+    <t>Like a 5 star hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was pleasantly surprised at the fact that this motel had rooms that were like new! The staff was super friendly, very attentive and they were extremely helpful when I had questions regarding what to do around the area. There is also an amazing coffee shop called Tierra Mia that is right next to the motel. It's so much better than Starbucks and everyone should give that place a try. Overall I had a great experience and would definitely come back! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r197113353-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>197113353</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Excellent Choice for LA Convention Goers &amp; nxt freeway!</t>
+  </si>
+  <si>
+    <t>We were there to attend a Convention at the Convention Center. It took less than 15 mins to dwntown LA. Location was great! The place is immaculate ! Cleaner place than I have seen in years. Everything is in great condition. Timmy &amp; staff go out of their way w five star treatment. I brought along my mom, their hospitality was incredible to go out of the way to ensure my elder mom was taken care of during our stay! The place was well lite as I had long days and got back late. They recommended great options for local coffee! Their ability to provide insight, suggestions to local areas was excellent ! The staff was considerate to our needs. The place was shocking with remodeled fixtures - everything looking brand new, freshly painted, brand new looking comforters. I would recommend this to everyone traveling into LA. I can't thank the staff and the owners in providing a great stay with a great experience!! Kranti MoreShow less</t>
+  </si>
+  <si>
+    <t>We were there to attend a Convention at the Convention Center. It took less than 15 mins to dwntown LA. Location was great! The place is immaculate ! Cleaner place than I have seen in years. Everything is in great condition. Timmy &amp; staff go out of their way w five star treatment. I brought along my mom, their hospitality was incredible to go out of the way to ensure my elder mom was taken care of during our stay! The place was well lite as I had long days and got back late. They recommended great options for local coffee! Their ability to provide insight, suggestions to local areas was excellent ! The staff was considerate to our needs. The place was shocking with remodeled fixtures - everything looking brand new, freshly painted, brand new looking comforters. I would recommend this to everyone traveling into LA. I can't thank the staff and the owners in providing a great stay with a great experience!! Kranti More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r184600525-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>184600525</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Very personalized and friendly service.</t>
+  </si>
+  <si>
+    <t>I stayed several times at the America's Best Value Inn at South Gate for a reason: the accommodations were very good and the staff and management were friendly and attentive to my needs. Tim and his staff and/or family were very welcoming and just pleasant to stay with. They really care about providing an excellent experience for their guests. In terms of other factors, the rooms were clean and comfortable, the location was convenient to the highway, and the location was a safe one. I will continue to stay here when coming to LA because I can count on my stay being comfortable and pleasant.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r181190529-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>181190529</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>A fine value</t>
+  </si>
+  <si>
+    <t>As part of a group of 15, we needed a place not too far from the airport, and not too far from our bird-watching locations (Swedes love American birds!).  The lady accommodated us with an early breakfast and a late check-out time.  The rooms were spacious.  The motel is close to fast food and gas stations.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Timesh_p, Manager at Americas Best Value Inn South Gate, responded to this reviewResponded October 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2013</t>
+  </si>
+  <si>
+    <t>As part of a group of 15, we needed a place not too far from the airport, and not too far from our bird-watching locations (Swedes love American birds!).  The lady accommodated us with an early breakfast and a late check-out time.  The rooms were spacious.  The motel is close to fast food and gas stations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r145418821-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>145418821</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>VERY CLEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was only a super 8 customs not anymore.       I loved my stay at the American best inn.  In south gate.  Will come many more times.    Thank you nick Patel for the cleanest room I have seen in years.  If your even in the area stay you will believe.  I still can't believe it.   But I'll never stay at a different motel again.    </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r144923256-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>144923256</t>
+  </si>
+  <si>
+    <t>11/08/2012</t>
+  </si>
+  <si>
+    <t>Eeekk!</t>
+  </si>
+  <si>
+    <t>I ordered a queen size bed when I reserved the room. Oddly enough it was the same size as my full size at home.At least we didn't have to worry about the pesky smoke alarm going off, because it was yanked out of the ceiling and just wires dangling.And we did get 2 awesome additions to the room!! 2 HUGE cockroaches! YAY!!! That was nice of them to add those at NO CHARGE!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Timesh_p, General Manager at Americas Best Value Inn South Gate, responded to this reviewResponded November 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2012</t>
+  </si>
+  <si>
+    <t>I ordered a queen size bed when I reserved the room. Oddly enough it was the same size as my full size at home.At least we didn't have to worry about the pesky smoke alarm going off, because it was yanked out of the ceiling and just wires dangling.And we did get 2 awesome additions to the room!! 2 HUGE cockroaches! YAY!!! That was nice of them to add those at NO CHARGE!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r140914455-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>140914455</t>
+  </si>
+  <si>
+    <t>09/22/2012</t>
+  </si>
+  <si>
+    <t>weekend getaway</t>
+  </si>
+  <si>
+    <t>We were trying to get away but not to far from home so we decided to stay at Amerias best.  The rooms were very clean although very small for wheelchair access but we managed.  The desk clerk was very nice.  It was a saturday night and a raucous crew woke us up in the middle of the night.  Loud drunk girls.  Profanity spewing out of the boys or men whatever they were.  A fight ensewed.  I DONT BLAME the clerk, i wouldnt want to put my life in danger trying to control and uncontrollable slew of drunkards but the police arrived soon enough to take control.  But otherwise it was a pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We were trying to get away but not to far from home so we decided to stay at Amerias best.  The rooms were very clean although very small for wheelchair access but we managed.  The desk clerk was very nice.  It was a saturday night and a raucous crew woke us up in the middle of the night.  Loud drunk girls.  Profanity spewing out of the boys or men whatever they were.  A fight ensewed.  I DONT BLAME the clerk, i wouldnt want to put my life in danger trying to control and uncontrollable slew of drunkards but the police arrived soon enough to take control.  But otherwise it was a pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r129992128-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>129992128</t>
+  </si>
+  <si>
+    <t>05/15/2012</t>
+  </si>
+  <si>
+    <t>Cozy Motel :)</t>
+  </si>
+  <si>
+    <t>I visited the area to visit some family and wanted to reserve a room close to their house.  This motel was PERFECT.  The coffee shop next door was amazing and very convenient!! The front desk agent Nina was very helpful on directions to parks and movie theaters.  Cant wait to come back again.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r124729736-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>124729736</t>
+  </si>
+  <si>
+    <t>02/17/2012</t>
+  </si>
+  <si>
+    <t>"Great Hotel"</t>
+  </si>
+  <si>
+    <t>Hallie VOur family stayed at this wonderful hotel.  It was roomy, clean and quiet.  The staff was very friendly and knowledgeable.  I will definitely stay there again.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r122997463-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>122997463</t>
+  </si>
+  <si>
+    <t>01/12/2012</t>
+  </si>
+  <si>
+    <t>THANKS AGAIN</t>
+  </si>
+  <si>
+    <t>I had a excellent exprience at this hotel. I was greeted by Nita and felt welcomed. Nita did a great job on finding me the best room. Once, I walked in the room I was amazed on how clean and elegant this room was. Thanks again Nita for your great customer sevice.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1105,1369 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>153</v>
+      </c>
+      <c r="X16" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>167</v>
+      </c>
+      <c r="X18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" t="s">
+        <v>176</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s">
+        <v>182</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>185</v>
+      </c>
+      <c r="J21" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s">
+        <v>188</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>189</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>189</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_10.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_10.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Tigerpaw45</t>
+  </si>
+  <si>
     <t>06/27/2018</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
   </si>
   <si>
     <t>Drugs, crime, and prostitution, what more can I say.  Wow the area is all industrial and poor.  The front desk people are very nice and helpful, but very dangerous area.  Missing toilet paper rolls, thin towels and smelly room.  Noise all nite long on both sides of us.  Clean and comfortable bed.More</t>
+  </si>
+  <si>
+    <t>jmarromain</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r391335644-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
@@ -217,6 +223,9 @@
 So don't be discourage and leave South Gate after being disappointed by the plethora of low-budge, lack luster rip-offs in the area. America's Best Value Inn &amp; Suites is the only Oasis of the Area! Thanks to Akunna and the rest of..."It was a long and hard week of activity during my visit to California. This was my last night before returning to NY. After checking out many hotels in the area, I was convinced that I had to travel far from West Gate to find something even remotely decent. Once America's Best Value Inn in South Gate was discovered, Akunna, the sales associate made it easy to de-stress. We doubted all of these positive reviews and requested that we be allowed to check out the room before actually paying for it. My mom, a particularly harsh critic was happy to have me continue with the transaction! The staff was great, our room at the America's Best Value Inn &amp; Suites was clean and cozy! The location is at the heart of everything! We probably would not even have gotten that far if it were not for Akunna's excellent deployment of professionalism and warm hospitable nature. Her calming voice made it impossible to continue being stressed and we quickly realized that we were even more tired than we thought! We were not going anywhere else! We would not be surprised if one day she takes on a corporate role! So don't be discourage and leave South Gate after being disappointed by the plethora of low-budge, lack luster rip-offs in the area. America's Best Value Inn &amp; Suites is the only Oasis of the Area! Thanks to Akunna and the rest of the staff, our stay was comfortable, easy going and worth it!"Sincerely, J'MarMore</t>
   </si>
   <si>
+    <t>sabineperon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r390588160-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -238,6 +247,9 @@
     <t>Very friendly , thank you Akouna and other employees Room clean, comfortable and fridge on demandCoffee and donuts saturday and sundayGood localisation near freeway, commercial area and south gate parkMore</t>
   </si>
   <si>
+    <t>Gill C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r323708296-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -262,6 +274,9 @@
     <t>Booked this accommodation after reading others reviews on trip advisor. The hotel was ideally placed south of LA and a short distance from the airport. The volume of traffic led to serious traffic jams and it took 1.5hrs to travel the 15 or so miles at 6pm. The staff were friendly, polite and helpful. The room looked like it had been refurbished and was clean, spacious and served it's purpose. The downside was the amount of loud traffic on the adjoining road which went on throughout the whole night. We had breakfast included in the price however this was very disappointing as it consisted of a thermos of either tepid or cold coffee and a plate of stale pastries served in the foyer. Luckily there were places nearby to get some breakfast. The rooms would benefit from tea/coffee facilities.More</t>
   </si>
   <si>
+    <t>CharMAR1953</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r312420632-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -283,6 +298,9 @@
     <t>This place is falling apart, room number missing from door, cigarette burn holes in bedspread, sheets paper thin, pillows lumpy, scum on counter in bathroom, toilet paper one ply and thin, towels were dingy and thin... no refrigerator or microwave.  Microwave in office broken. Dirty sidewalks, needed sweeping (ie: cigarette butts, leaves) light fixture in bathroom dangling. Breakfast non existent.  Noise from passing trucks and motorcycles ran late into the night. Old out of date TV.   We were planning a two night stay, but did spend one night as we did not want to lose our money.  Cancelled second night and  booked something much nicer for less money . This place needs some serious help. It is overpriced and does not resemble the image projected on the internet site.More</t>
   </si>
   <si>
+    <t>Andy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r295397276-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -301,6 +319,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Eugene K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r269982643-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -331,6 +352,9 @@
     <t>On a recent trip to the Long Beach, CA area to attend the AAHOA National Conference I had the opportunity to spend 3 nights &amp; 4 days at the ABVI Southgate. The overall property was inviting, room nicely appointed &amp; very clean. The staff was in all respects friendly &amp; very helpful. Truly made me feel at home. Property centrally located for the LA area &amp; well priced for the guest. Thank you to all &amp; don't miss the opportunity to be their GUEST!More</t>
   </si>
   <si>
+    <t>Paul H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r269844165-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -355,6 +379,9 @@
     <t>Stayed for 4 nights, and as usual, the stay was great! The owners/managers, Nick and Nita, are always welcoming and very accommodating. The room was clean, spacious, comfortable, and safe.The hotel has a continental breakfast and there is a coffee shop,Tiera Mia, adjacent to the hotel. Also, a Walmart, TGI Fridays, Chipolte Restaurant, Target, Habit Grill,Panda Express, and many shops within walking distance as well as the Metro Bus line footsteps away. This small hotel is tucked away right next to the I710 freeway at within a 1/4 mile of the Firestone exit at South Gate! Thanks again for a great stay! Will be back! When travelling a 120+ nights per year it's great to stay with people who care!More</t>
   </si>
   <si>
+    <t>Lis150</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r250430249-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -397,6 +424,9 @@
     <t>This hotel is convenietly located within 3 blocks of I710 for easy access. I have stayed here many times, and the rooms are like new. The bedding is in excellent shape, new air conditioning units, and overall new "feel". It is very value priced for Los Angeles/South Gate market. There is a Walmart and CVS pharmacy within walking distance as well. To be adjacent to the road...the property is very quite.This property is managed by a husband and wife team, Nick and Nita. They have both always made us feel welcome, and they have always got us into a room even on busy weekends at last minute. There is a coffee shop next door..Tierra Mia, and several restaraunts to choose nearby.The housekeepers clean well, and I would say that this is definitely one of the best Americas Best Value Inns we have ran across in their chain. It is very comparable to a Comfort Inn or  Ramada Limited. Keep up the great work! My partner and I agree that this is definitely one of the better deals for LA Area.Will definitely return when in this area. cc: Americas Best Value InnsMore</t>
   </si>
   <si>
+    <t>Sarah M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r215456388-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -412,6 +442,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Sahar B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r209165454-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -427,6 +460,9 @@
     <t xml:space="preserve">I was pleasantly surprised at the fact that this motel had rooms that were like new! The staff was super friendly, very attentive and they were extremely helpful when I had questions regarding what to do around the area. There is also an amazing coffee shop called Tierra Mia that is right next to the motel. It's so much better than Starbucks and everyone should give that place a try. Overall I had a great experience and would definitely come back! </t>
   </si>
   <si>
+    <t>KKranti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r197113353-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -445,6 +481,9 @@
     <t>We were there to attend a Convention at the Convention Center. It took less than 15 mins to dwntown LA. Location was great! The place is immaculate ! Cleaner place than I have seen in years. Everything is in great condition. Timmy &amp; staff go out of their way w five star treatment. I brought along my mom, their hospitality was incredible to go out of the way to ensure my elder mom was taken care of during our stay! The place was well lite as I had long days and got back late. They recommended great options for local coffee! Their ability to provide insight, suggestions to local areas was excellent ! The staff was considerate to our needs. The place was shocking with remodeled fixtures - everything looking brand new, freshly painted, brand new looking comforters. I would recommend this to everyone traveling into LA. I can't thank the staff and the owners in providing a great stay with a great experience!! Kranti More</t>
   </si>
   <si>
+    <t>Benjamin W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r184600525-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -463,6 +502,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Henry D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r181190529-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -490,6 +532,9 @@
     <t>As part of a group of 15, we needed a place not too far from the airport, and not too far from our bird-watching locations (Swedes love American birds!).  The lady accommodated us with an early breakfast and a late check-out time.  The rooms were spacious.  The motel is close to fast food and gas stations.More</t>
   </si>
   <si>
+    <t>sugarwillie78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r145418821-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -505,6 +550,9 @@
     <t xml:space="preserve">I was only a super 8 customs not anymore.       I loved my stay at the American best inn.  In south gate.  Will come many more times.    Thank you nick Patel for the cleanest room I have seen in years.  If your even in the area stay you will believe.  I still can't believe it.   But I'll never stay at a different motel again.    </t>
   </si>
   <si>
+    <t>Mystic V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r144923256-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -532,6 +580,9 @@
     <t>I ordered a queen size bed when I reserved the room. Oddly enough it was the same size as my full size at home.At least we didn't have to worry about the pesky smoke alarm going off, because it was yanked out of the ceiling and just wires dangling.And we did get 2 awesome additions to the room!! 2 HUGE cockroaches! YAY!!! That was nice of them to add those at NO CHARGE!!!More</t>
   </si>
   <si>
+    <t>norms65r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r140914455-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -556,6 +607,9 @@
     <t>We were trying to get away but not to far from home so we decided to stay at Amerias best.  The rooms were very clean although very small for wheelchair access but we managed.  The desk clerk was very nice.  It was a saturday night and a raucous crew woke us up in the middle of the night.  Loud drunk girls.  Profanity spewing out of the boys or men whatever they were.  A fight ensewed.  I DONT BLAME the clerk, i wouldnt want to put my life in danger trying to control and uncontrollable slew of drunkards but the police arrived soon enough to take control.  But otherwise it was a pleasant stay.More</t>
   </si>
   <si>
+    <t>Richard G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r129992128-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -574,6 +628,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>Hallie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r124729736-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
@@ -590,6 +647,9 @@
   </si>
   <si>
     <t>January 2012</t>
+  </si>
+  <si>
+    <t>Jesse S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r122997463-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
@@ -1109,34 +1169,38 @@
       <c r="A2" t="n">
         <v>46229</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>150071</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -1153,56 +1217,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>46229</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>150072</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1220,56 +1288,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>46229</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>150073</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1287,56 +1359,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>46229</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>150074</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -1356,50 +1432,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>46229</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>150075</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1419,50 +1499,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>46229</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>30172</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1482,50 +1566,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>46229</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>53311</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1541,56 +1629,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>46229</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
         <v>106</v>
-      </c>
-      <c r="L9" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>108</v>
-      </c>
-      <c r="O9" t="s">
-        <v>99</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1602,56 +1694,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>46229</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>150076</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1669,56 +1765,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>46229</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1738,50 +1838,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>46229</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>16153</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="O12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1805,50 +1909,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>46229</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>150077</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>132</v>
       </c>
-      <c r="K13" t="s">
-        <v>133</v>
-      </c>
-      <c r="L13" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>123</v>
-      </c>
       <c r="O13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1862,41 +1970,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>46229</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>150078</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
@@ -1925,50 +2037,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>46229</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>99563</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -1992,50 +2108,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>46229</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>31516</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2057,47 +2177,51 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="X16" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>46229</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>150079</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
@@ -2126,50 +2250,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>46229</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>150080</v>
+      </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2191,56 +2319,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="X18" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>46229</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>150081</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="O19" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2264,50 +2396,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>46229</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>9230</v>
+      </c>
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="O20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2331,50 +2467,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>46229</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>150082</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -2398,50 +2538,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>46229</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>79123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>209</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2465,7 +2609,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_10.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_10.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
   <si>
     <t>STR#</t>
   </si>
@@ -150,13 +150,10 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Tigerpaw45</t>
-  </si>
-  <si>
-    <t>06/27/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r412932944-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r597405877-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>33113</t>
@@ -165,6 +162,111 @@
     <t>1209358</t>
   </si>
   <si>
+    <t>597405877</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>When I stayed here with my partner, we loved it! Continental breakfast, free WI-FI and it's affordable, what more can you ask for!  The staff were very friendly and helpful with suggestions for restaurants, BARS and attractions. The check in host was awesome and very welcoming ( I think her name was Trina). I had the absolute best stay here and will return whenever I'm in town!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at SureStay Hotel by Best Western South Gate, responded to this reviewResponded July 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2018</t>
+  </si>
+  <si>
+    <t>When I stayed here with my partner, we loved it! Continental breakfast, free WI-FI and it's affordable, what more can you ask for!  The staff were very friendly and helpful with suggestions for restaurants, BARS and attractions. The check in host was awesome and very welcoming ( I think her name was Trina). I had the absolute best stay here and will return whenever I'm in town!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r593884251-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>593884251</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>Affordable, central motel</t>
+  </si>
+  <si>
+    <t>The location is fairly central for anything you'd want to do. I personally picked it because it was close to where I could park my tractor-trailer as well as about a 30 minute drive from downtown. The price was affordable and definitely reflects the quality. The room was cheap, but clean. The fridge wasn't working properly, but other than that everything else about the room was fine. The wifi wasn't very good and kept cutting out, but it did work most of the time. There is a shopping center basically across the street, which was perfect for me as I didn't have a car. I would stay here again if I was in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at SureStay Hotel by Best Western South Gate, responded to this reviewResponded July 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2018</t>
+  </si>
+  <si>
+    <t>The location is fairly central for anything you'd want to do. I personally picked it because it was close to where I could park my tractor-trailer as well as about a 30 minute drive from downtown. The price was affordable and definitely reflects the quality. The room was cheap, but clean. The fridge wasn't working properly, but other than that everything else about the room was fine. The wifi wasn't very good and kept cutting out, but it did work most of the time. There is a shopping center basically across the street, which was perfect for me as I didn't have a car. I would stay here again if I was in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r527193141-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>527193141</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Great value for money! Would stay again. Thanks!</t>
+  </si>
+  <si>
+    <t>We stayed in Juli 2017 at the motel. Our room was renovated and very clean. Parking on the property, Supermarket just 5 min. walk away. Easy drive to city center. Very good value for money. We can definitely recommend this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Timesh_p, Guest Relations Manager at SureStay Hotel by Best Western South Gate, responded to this reviewResponded October 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2017</t>
+  </si>
+  <si>
+    <t>We stayed in Juli 2017 at the motel. Our room was renovated and very clean. Parking on the property, Supermarket just 5 min. walk away. Easy drive to city center. Very good value for money. We can definitely recommend this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r443372267-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>443372267</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Clean, Quiet, Comfortable</t>
+  </si>
+  <si>
+    <t>Stayed here with my girlfriend during our LA trip. It's a pretty centralized location. 15-30 minutes from: Downtown LA, Disneyland, Long Beach, Santa Monica.... you get the point. Definitely affordable and the staff is nice. I would recommend to anyone looking for a place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Stayed here with my girlfriend during our LA trip. It's a pretty centralized location. 15-30 minutes from: Downtown LA, Disneyland, Long Beach, Santa Monica.... you get the point. Definitely affordable and the staff is nice. I would recommend to anyone looking for a place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r412932944-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
     <t>412932944</t>
   </si>
   <si>
@@ -177,7 +279,7 @@
     <t>Drugs, crime, and prostitution, what more can I say.  Wow the area is all industrial and poor.  The front desk people are very nice and helpful, but very dangerous area.  Missing toilet paper rolls, thin towels and smelly room.  Noise all nite long on both sides of us.  Clean and comfortable bed.MoreShow less</t>
   </si>
   <si>
-    <t>Timesh_p, Guest Relations Manager at Americas Best Value Inn South Gate, responded to this reviewResponded September 7, 2016</t>
+    <t>Timesh_p, Guest Relations Manager at SureStay Hotel by Best Western South Gate, responded to this reviewResponded September 7, 2016</t>
   </si>
   <si>
     <t>Responded September 7, 2016</t>
@@ -186,10 +288,7 @@
     <t>Drugs, crime, and prostitution, what more can I say.  Wow the area is all industrial and poor.  The front desk people are very nice and helpful, but very dangerous area.  Missing toilet paper rolls, thin towels and smelly room.  Noise all nite long on both sides of us.  Clean and comfortable bed.More</t>
   </si>
   <si>
-    <t>jmarromain</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r391335644-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r391335644-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>391335644</t>
@@ -212,7 +311,7 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Timesh_p, Guest Relations Manager at Americas Best Value Inn South Gate, responded to this reviewResponded July 15, 2016</t>
+    <t>Timesh_p, Guest Relations Manager at SureStay Hotel by Best Western South Gate, responded to this reviewResponded July 15, 2016</t>
   </si>
   <si>
     <t>Responded July 15, 2016</t>
@@ -223,10 +322,7 @@
 So don't be discourage and leave South Gate after being disappointed by the plethora of low-budge, lack luster rip-offs in the area. America's Best Value Inn &amp; Suites is the only Oasis of the Area! Thanks to Akunna and the rest of..."It was a long and hard week of activity during my visit to California. This was my last night before returning to NY. After checking out many hotels in the area, I was convinced that I had to travel far from West Gate to find something even remotely decent. Once America's Best Value Inn in South Gate was discovered, Akunna, the sales associate made it easy to de-stress. We doubted all of these positive reviews and requested that we be allowed to check out the room before actually paying for it. My mom, a particularly harsh critic was happy to have me continue with the transaction! The staff was great, our room at the America's Best Value Inn &amp; Suites was clean and cozy! The location is at the heart of everything! We probably would not even have gotten that far if it were not for Akunna's excellent deployment of professionalism and warm hospitable nature. Her calming voice made it impossible to continue being stressed and we quickly realized that we were even more tired than we thought! We were not going anywhere else! We would not be surprised if one day she takes on a corporate role! So don't be discourage and leave South Gate after being disappointed by the plethora of low-budge, lack luster rip-offs in the area. America's Best Value Inn &amp; Suites is the only Oasis of the Area! Thanks to Akunna and the rest of the staff, our stay was comfortable, easy going and worth it!"Sincerely, J'MarMore</t>
   </si>
   <si>
-    <t>sabineperon</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r390588160-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r390588160-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>390588160</t>
@@ -241,16 +337,49 @@
     <t>Very friendly , thank you Akouna and other employees Room clean, comfortable and fridge on demandCoffee and donuts saturday and sundayGood localisation near freeway, commercial area and south gate parkMoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Very friendly , thank you Akouna and other employees Room clean, comfortable and fridge on demandCoffee and donuts saturday and sundayGood localisation near freeway, commercial area and south gate parkMore</t>
   </si>
   <si>
-    <t>Gill C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r323708296-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r355126804-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>355126804</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>SATURDAY HANG OUT</t>
+  </si>
+  <si>
+    <t>My boyfriend Charles and I stayed at this hotel overnight. It was very quiet. The customer service associate Akuna was very friendly and nice. I found her very helpful. The other associates were also nice, polite, friendly, and very warm. Our room was cozy and clean. Overall my boyfriend and   I will stay there again in the upcoming months.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r352750146-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>352750146</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Centralized location, nice value and great staff!</t>
+  </si>
+  <si>
+    <t>The service at Americas Best Value Inn in South Gate is top notch. I was looking for a reasonably priced hotel in proximity to where I am working and this hotel has worked out great for me. All staff I have encountered here have been polite, extremely helpful and accommodating (and I believe I have met them all). The month of February I have stayed three to four days a week at this hotel and the people here make it easy for me. There is a very nice coffee shop next store. There are grocery stores, gas stations,  banks, shops and restaurants (and a movie theater) within five to ten minutes of the location. So, everything I need is in close proximity to the hotel. The hotel is on a major arterial, which is convenient, but the one drawback is you do hear traffic noise from the street. Every place is not necessarily right for everyone, but I would give this place a try. As I need a place to stay throughout this upcoming month I will stay here.Thank you Nita, Cruz and the entire staff for making my stay comfortable and affordable!RobertMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>The service at Americas Best Value Inn in South Gate is top notch. I was looking for a reasonably priced hotel in proximity to where I am working and this hotel has worked out great for me. All staff I have encountered here have been polite, extremely helpful and accommodating (and I believe I have met them all). The month of February I have stayed three to four days a week at this hotel and the people here make it easy for me. There is a very nice coffee shop next store. There are grocery stores, gas stations,  banks, shops and restaurants (and a movie theater) within five to ten minutes of the location. So, everything I need is in close proximity to the hotel. The hotel is on a major arterial, which is convenient, but the one drawback is you do hear traffic noise from the street. Every place is not necessarily right for everyone, but I would give this place a try. As I need a place to stay throughout this upcoming month I will stay here.Thank you Nita, Cruz and the entire staff for making my stay comfortable and affordable!RobertMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r323708296-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>323708296</t>
@@ -274,10 +403,7 @@
     <t>Booked this accommodation after reading others reviews on trip advisor. The hotel was ideally placed south of LA and a short distance from the airport. The volume of traffic led to serious traffic jams and it took 1.5hrs to travel the 15 or so miles at 6pm. The staff were friendly, polite and helpful. The room looked like it had been refurbished and was clean, spacious and served it's purpose. The downside was the amount of loud traffic on the adjoining road which went on throughout the whole night. We had breakfast included in the price however this was very disappointing as it consisted of a thermos of either tepid or cold coffee and a plate of stale pastries served in the foyer. Luckily there were places nearby to get some breakfast. The rooms would benefit from tea/coffee facilities.More</t>
   </si>
   <si>
-    <t>CharMAR1953</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r312420632-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r312420632-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>312420632</t>
@@ -298,10 +424,7 @@
     <t>This place is falling apart, room number missing from door, cigarette burn holes in bedspread, sheets paper thin, pillows lumpy, scum on counter in bathroom, toilet paper one ply and thin, towels were dingy and thin... no refrigerator or microwave.  Microwave in office broken. Dirty sidewalks, needed sweeping (ie: cigarette butts, leaves) light fixture in bathroom dangling. Breakfast non existent.  Noise from passing trucks and motorcycles ran late into the night. Old out of date TV.   We were planning a two night stay, but did spend one night as we did not want to lose our money.  Cancelled second night and  booked something much nicer for less money . This place needs some serious help. It is overpriced and does not resemble the image projected on the internet site.More</t>
   </si>
   <si>
-    <t>Andy C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r295397276-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r295397276-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>295397276</t>
@@ -319,10 +442,46 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>Eugene K</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r269982643-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r287787805-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>287787805</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Great Place .Clean, Value. Like new rooms, excellent staff</t>
+  </si>
+  <si>
+    <t>My family and I stayed at America Best Value Hotel and I must say that it exceeded every expectation that we had before we checked in.  The rating of the hotel should be raised to at least a 4 star The rooms were like new, Clean from the new carpet to the comfortable beds. The staff was outstanding . Polite,courteous and willing to go the extra mile to make sure we had everything we needed .   The value is beyond compare . One could easily expect to pay 50% more from a comparable hotel elsewhere. We decided to stay an additional night and take the short drive back to the room instead of staying closer to the attractions downtown.i very seldom right a review to endorse anything but I can't speak more highly of this family run business.  Enjoy MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>My family and I stayed at America Best Value Hotel and I must say that it exceeded every expectation that we had before we checked in.  The rating of the hotel should be raised to at least a 4 star The rooms were like new, Clean from the new carpet to the comfortable beds. The staff was outstanding . Polite,courteous and willing to go the extra mile to make sure we had everything we needed .   The value is beyond compare . One could easily expect to pay 50% more from a comparable hotel elsewhere. We decided to stay an additional night and take the short drive back to the room instead of staying closer to the attractions downtown.i very seldom right a review to endorse anything but I can't speak more highly of this family run business.  Enjoy More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r280545222-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>280545222</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>Nice/Okay place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here last minute while visiting family in Huntington Park, CA. Small parking lot with all night security (nice feature) considering the surrounding cities. Immediate area is nice. There isn't any visible graffiti, trash, or transients.Hotel staff was VERY accommodating considering our reservation somehow switched from 6/15 to 6/23 through booking.com. Not sure how it happened, but they were able to provide us a room when we arrived late on the 15th. Our room was better than expected with nice clean, cushy carpet. However, we were missing our TV remote &amp; washcloths, which the front desk clerk provided to us immediately. Towels are on the small side approximately 32x16, no bag for ice bucket, and only two pillows on the bed (two more provided to us upon request). Loud running water moving through pipes when shower near our room was turned on, but immediately went away when the water switched over to the shower head. Also, we noticed that cigarette smoke from the outside patio (second floor balcony) filtered into our room, yuk! Smell disappeared when the smoker was finished. Overall, for the price of $85.00/night it was a nice, clean place to stay with friendly, helpful staff. We stayed in room 211. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here last minute while visiting family in Huntington Park, CA. Small parking lot with all night security (nice feature) considering the surrounding cities. Immediate area is nice. There isn't any visible graffiti, trash, or transients.Hotel staff was VERY accommodating considering our reservation somehow switched from 6/15 to 6/23 through booking.com. Not sure how it happened, but they were able to provide us a room when we arrived late on the 15th. Our room was better than expected with nice clean, cushy carpet. However, we were missing our TV remote &amp; washcloths, which the front desk clerk provided to us immediately. Towels are on the small side approximately 32x16, no bag for ice bucket, and only two pillows on the bed (two more provided to us upon request). Loud running water moving through pipes when shower near our room was turned on, but immediately went away when the water switched over to the shower head. Also, we noticed that cigarette smoke from the outside patio (second floor balcony) filtered into our room, yuk! Smell disappeared when the smoker was finished. Overall, for the price of $85.00/night it was a nice, clean place to stay with friendly, helpful staff. We stayed in room 211. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r269982643-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>269982643</t>
@@ -343,7 +502,7 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Timesh_p, General Manager at Americas Best Value Inn South Gate, responded to this reviewResponded May 12, 2015</t>
+    <t>Timesh_p, General Manager at SureStay Hotel by Best Western South Gate, responded to this reviewResponded May 12, 2015</t>
   </si>
   <si>
     <t>Responded May 12, 2015</t>
@@ -352,10 +511,7 @@
     <t>On a recent trip to the Long Beach, CA area to attend the AAHOA National Conference I had the opportunity to spend 3 nights &amp; 4 days at the ABVI Southgate. The overall property was inviting, room nicely appointed &amp; very clean. The staff was in all respects friendly &amp; very helpful. Truly made me feel at home. Property centrally located for the LA area &amp; well priced for the guest. Thank you to all &amp; don't miss the opportunity to be their GUEST!More</t>
   </si>
   <si>
-    <t>Paul H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r269844165-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r269844165-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>269844165</t>
@@ -373,16 +529,13 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>Timesh_p, Manager at Americas Best Value Inn South Gate, responded to this reviewResponded May 12, 2015</t>
+    <t>Timesh_p, Manager at SureStay Hotel by Best Western South Gate, responded to this reviewResponded May 12, 2015</t>
   </si>
   <si>
     <t>Stayed for 4 nights, and as usual, the stay was great! The owners/managers, Nick and Nita, are always welcoming and very accommodating. The room was clean, spacious, comfortable, and safe.The hotel has a continental breakfast and there is a coffee shop,Tiera Mia, adjacent to the hotel. Also, a Walmart, TGI Fridays, Chipolte Restaurant, Target, Habit Grill,Panda Express, and many shops within walking distance as well as the Metro Bus line footsteps away. This small hotel is tucked away right next to the I710 freeway at within a 1/4 mile of the Firestone exit at South Gate! Thanks again for a great stay! Will be back! When travelling a 120+ nights per year it's great to stay with people who care!More</t>
   </si>
   <si>
-    <t>Lis150</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r250430249-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r250430249-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>250430249</t>
@@ -403,7 +556,43 @@
     <t>While the office staff when we checked-in was very nice, this place really needs some upkeep.  Sheets seemed clean and the beds were comfortable, but there was a dark stain on one of the bed skirts.  We were on the 2nd floor and there was a hole in the flooring near top of stairway that really should have had caution tape or something around it. The 2nd lock at the top of our door was broken.  We mentioned this when we went to ask for tissues and more toilet paper and was told "but the deadbolt works." The bathroom sink had no plug, towels were extremely dingy and very badly frayed.  Tissues were the thinnest we have ever seen.  The toilet paper holder was broken.  No clock in the room.  There was a nice little table &amp; 2 chairs, a chest to put a suitcase on and a TV. They also have free wifi.  There was also a fridge but we didn't realize it was unplugged until the morning so we had to throw away food we had put in it. The office is locked at night so when we checked out at 8am we had to ring the buzzer then stand outside and wait for someone in their bathrobe to come to the locked window so we could return our key cards.  The Tierra Mia coffee shop next door was great.  The price was "right" for a one night...While the office staff when we checked-in was very nice, this place really needs some upkeep.  Sheets seemed clean and the beds were comfortable, but there was a dark stain on one of the bed skirts.  We were on the 2nd floor and there was a hole in the flooring near top of stairway that really should have had caution tape or something around it. The 2nd lock at the top of our door was broken.  We mentioned this when we went to ask for tissues and more toilet paper and was told "but the deadbolt works." The bathroom sink had no plug, towels were extremely dingy and very badly frayed.  Tissues were the thinnest we have ever seen.  The toilet paper holder was broken.  No clock in the room.  There was a nice little table &amp; 2 chairs, a chest to put a suitcase on and a TV. They also have free wifi.  There was also a fridge but we didn't realize it was unplugged until the morning so we had to throw away food we had put in it. The office is locked at night so when we checked out at 8am we had to ring the buzzer then stand outside and wait for someone in their bathrobe to come to the locked window so we could return our key cards.  The Tierra Mia coffee shop next door was great.  The price was "right" for a one night stay here but this place needs to work on their maintenance.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r215458863-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r247715035-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>247715035</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel and Location</t>
+  </si>
+  <si>
+    <t>Great place to stay. Staff is extremely nice and make you feel at ease. The prices are very reasonable. Really enjoyed the room, very spacious, comfortable and very clean. The location was even better, restaurants, coffee shop, stores, pharmacy was all walking distance. I would recommend this hotel for everybody.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Great place to stay. Staff is extremely nice and make you feel at ease. The prices are very reasonable. Really enjoyed the room, very spacious, comfortable and very clean. The location was even better, restaurants, coffee shop, stores, pharmacy was all walking distance. I would recommend this hotel for everybody.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r242050934-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>242050934</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>Thanks for hospitality. P.s. Thank for flowers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was very nice experience to my wife and me to stay at this hotel. Thanks for hospitality Nita. The location is very comfortable and the relation between price and quality is the best. We can recommend this hotel for everybody, who want to stay at safe, calm, comfortable place. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r215458863-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>215458863</t>
@@ -424,28 +613,16 @@
     <t>This hotel is convenietly located within 3 blocks of I710 for easy access. I have stayed here many times, and the rooms are like new. The bedding is in excellent shape, new air conditioning units, and overall new "feel". It is very value priced for Los Angeles/South Gate market. There is a Walmart and CVS pharmacy within walking distance as well. To be adjacent to the road...the property is very quite.This property is managed by a husband and wife team, Nick and Nita. They have both always made us feel welcome, and they have always got us into a room even on busy weekends at last minute. There is a coffee shop next door..Tierra Mia, and several restaraunts to choose nearby.The housekeepers clean well, and I would say that this is definitely one of the best Americas Best Value Inns we have ran across in their chain. It is very comparable to a Comfort Inn or  Ramada Limited. Keep up the great work! My partner and I agree that this is definitely one of the better deals for LA Area.Will definitely return when in this area. cc: Americas Best Value InnsMore</t>
   </si>
   <si>
-    <t>Sarah M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r215456388-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r215456388-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>215456388</t>
   </si>
   <si>
-    <t>Nice and clean Motel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They were very co-operative as the reservation over Budgetplaces went wrong for some reasons.The rooms are clean and spacious and the beds are comfortable.I can really recomend to stay there when you need a good place to sleep after a long day in LA, Universal Studios etc. </t>
-  </si>
-  <si>
     <t>July 2014</t>
   </si>
   <si>
-    <t>Sahar B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r209165454-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r209165454-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>209165454</t>
@@ -460,10 +637,52 @@
     <t xml:space="preserve">I was pleasantly surprised at the fact that this motel had rooms that were like new! The staff was super friendly, very attentive and they were extremely helpful when I had questions regarding what to do around the area. There is also an amazing coffee shop called Tierra Mia that is right next to the motel. It's so much better than Starbucks and everyone should give that place a try. Overall I had a great experience and would definitely come back! </t>
   </si>
   <si>
-    <t>KKranti</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r197113353-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r208837614-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>208837614</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>Not the best I have seen from that chain</t>
+  </si>
+  <si>
+    <t>I have used Best Value several times and at several locations during the last 10 years or so. Always with better results that here.OK, the room was nice and appeared clean with clean sheets on the bed. Not that many channels on the old CRT TV.The fridge was extremely noisy, so I turned it off during the night. Same for the A/C.In the morning I did find one almost dead 'roach' in the bathroom. Belly up and barely moving. If it was due to poison or lack of food is unknown.However, the two standard towels available were some what too small for a bath. I managed, but... Why no bath towels?And the nice soap and shampoo dispenser in the bath was bone dry and had been so for some time it seemed!I managed with one of the pieces of bar soap available, but my hair, whats left of it, had to be rinsed only.The web site mentions continental breakfast, but the young girl at the reception last night described it as: 'Mainly coffee'. It may be better/more, but it has not been checked yet.Firestone seems to be a rather busy road with lots of heavy and noisy traffic 24/7.The WiFi, through which this is being written, worked without a glitch!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have used Best Value several times and at several locations during the last 10 years or so. Always with better results that here.OK, the room was nice and appeared clean with clean sheets on the bed. Not that many channels on the old CRT TV.The fridge was extremely noisy, so I turned it off during the night. Same for the A/C.In the morning I did find one almost dead 'roach' in the bathroom. Belly up and barely moving. If it was due to poison or lack of food is unknown.However, the two standard towels available were some what too small for a bath. I managed, but... Why no bath towels?And the nice soap and shampoo dispenser in the bath was bone dry and had been so for some time it seemed!I managed with one of the pieces of bar soap available, but my hair, whats left of it, had to be rinsed only.The web site mentions continental breakfast, but the young girl at the reception last night described it as: 'Mainly coffee'. It may be better/more, but it has not been checked yet.Firestone seems to be a rather busy road with lots of heavy and noisy traffic 24/7.The WiFi, through which this is being written, worked without a glitch!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r203056521-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>203056521</t>
+  </si>
+  <si>
+    <t>04/27/2014</t>
+  </si>
+  <si>
+    <t>Bad, unfriendly place</t>
+  </si>
+  <si>
+    <t>Unfriendly staff, even though we booked im advance (she couldnt find it in the system) we agreed to pay again. still, this lady at the reception was very rude and we didnt felt welcomed at all. the room was the worst on our whole trip across LA - bad smell, very loud, not clean at all (our sheets were dirty!! And everything looked used) cold coffee. We would never ever go there again and would absolutely NOT RECOMMEND this place to anyone!  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Timesh_p, General Manager at SureStay Hotel by Best Western South Gate, responded to this reviewResponded May 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2014</t>
+  </si>
+  <si>
+    <t>Unfriendly staff, even though we booked im advance (she couldnt find it in the system) we agreed to pay again. still, this lady at the reception was very rude and we didnt felt welcomed at all. the room was the worst on our whole trip across LA - bad smell, very loud, not clean at all (our sheets were dirty!! And everything looked used) cold coffee. We would never ever go there again and would absolutely NOT RECOMMEND this place to anyone!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r197113353-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>197113353</t>
@@ -481,10 +700,7 @@
     <t>We were there to attend a Convention at the Convention Center. It took less than 15 mins to dwntown LA. Location was great! The place is immaculate ! Cleaner place than I have seen in years. Everything is in great condition. Timmy &amp; staff go out of their way w five star treatment. I brought along my mom, their hospitality was incredible to go out of the way to ensure my elder mom was taken care of during our stay! The place was well lite as I had long days and got back late. They recommended great options for local coffee! Their ability to provide insight, suggestions to local areas was excellent ! The staff was considerate to our needs. The place was shocking with remodeled fixtures - everything looking brand new, freshly painted, brand new looking comforters. I would recommend this to everyone traveling into LA. I can't thank the staff and the owners in providing a great stay with a great experience!! Kranti More</t>
   </si>
   <si>
-    <t>Benjamin W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r184600525-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r184600525-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>184600525</t>
@@ -502,10 +718,7 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t>Henry D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r181190529-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r181190529-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>181190529</t>
@@ -523,7 +736,7 @@
     <t>October 2013</t>
   </si>
   <si>
-    <t>Timesh_p, Manager at Americas Best Value Inn South Gate, responded to this reviewResponded October 16, 2013</t>
+    <t>Timesh_p, Manager at SureStay Hotel by Best Western South Gate, responded to this reviewResponded October 16, 2013</t>
   </si>
   <si>
     <t>Responded October 16, 2013</t>
@@ -532,10 +745,40 @@
     <t>As part of a group of 15, we needed a place not too far from the airport, and not too far from our bird-watching locations (Swedes love American birds!).  The lady accommodated us with an early breakfast and a late check-out time.  The rooms were spacious.  The motel is close to fast food and gas stations.More</t>
   </si>
   <si>
-    <t>sugarwillie78</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r145418821-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r169522399-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>169522399</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>My family and I were traveling to Los Angeles from Laguna Beach and didn't have a hotel reserved.  After reading reviews on this hotel we decided to give it a try.  We were very pleased with this hotel, it was extremely clean and the attendant at the front desk was very helpful and friendly.  We were a little worried about our vehicle due to the area but we were assured there had never been any incidents and were even offered the owner's parking spot right in front of the office.  I would definitely recommend this hotel and would stay here again!!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r145570859-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>145570859</t>
+  </si>
+  <si>
+    <t>11/16/2012</t>
+  </si>
+  <si>
+    <t>Awsome location!</t>
+  </si>
+  <si>
+    <t>Hello, My name is Brenda!I had an awsome trip from San Jose to Southgate,ca at Americas Best Value Inn. Everything was perfect nice clean rooms great assistance, good rates. The front desk told my boyfriend about this awsome place to go have dinner at Acapulcos, she was really friendly. I would defenetly go to that hotel again on my next trip. Thank you.!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r145418821-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>145418821</t>
@@ -550,10 +793,7 @@
     <t xml:space="preserve">I was only a super 8 customs not anymore.       I loved my stay at the American best inn.  In south gate.  Will come many more times.    Thank you nick Patel for the cleanest room I have seen in years.  If your even in the area stay you will believe.  I still can't believe it.   But I'll never stay at a different motel again.    </t>
   </si>
   <si>
-    <t>Mystic V</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r144923256-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r144923256-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>144923256</t>
@@ -571,7 +811,7 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>Timesh_p, General Manager at Americas Best Value Inn South Gate, responded to this reviewResponded November 9, 2012</t>
+    <t>Timesh_p, General Manager at SureStay Hotel by Best Western South Gate, responded to this reviewResponded November 9, 2012</t>
   </si>
   <si>
     <t>Responded November 9, 2012</t>
@@ -580,10 +820,7 @@
     <t>I ordered a queen size bed when I reserved the room. Oddly enough it was the same size as my full size at home.At least we didn't have to worry about the pesky smoke alarm going off, because it was yanked out of the ceiling and just wires dangling.And we did get 2 awesome additions to the room!! 2 HUGE cockroaches! YAY!!! That was nice of them to add those at NO CHARGE!!!More</t>
   </si>
   <si>
-    <t>norms65r</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r140914455-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r140914455-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>140914455</t>
@@ -601,16 +838,46 @@
     <t>October 2011</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>We were trying to get away but not to far from home so we decided to stay at Amerias best.  The rooms were very clean although very small for wheelchair access but we managed.  The desk clerk was very nice.  It was a saturday night and a raucous crew woke us up in the middle of the night.  Loud drunk girls.  Profanity spewing out of the boys or men whatever they were.  A fight ensewed.  I DONT BLAME the clerk, i wouldnt want to put my life in danger trying to control and uncontrollable slew of drunkards but the police arrived soon enough to take control.  But otherwise it was a pleasant stay.More</t>
   </si>
   <si>
-    <t>Richard G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r129992128-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r136190386-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>136190386</t>
+  </si>
+  <si>
+    <t>08/03/2012</t>
+  </si>
+  <si>
+    <t>bang for your buck</t>
+  </si>
+  <si>
+    <t>Went up to LA for work and was too lazy to drive back.  I wasn't too sure about the area at first, but once I checked in the rooms were surprisingly AWESOME.  AC worked great and I slept like a baby.Coffee shop next door is decently priced - chocolate muffins are good.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r130416043-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
+  </si>
+  <si>
+    <t>130416043</t>
+  </si>
+  <si>
+    <t>05/22/2012</t>
+  </si>
+  <si>
+    <t>Love it, Excellent location</t>
+  </si>
+  <si>
+    <t>We booked this hotel over the internet without much research - the location was amazing, turns out to central to major LA landmarks and tourist sites. The rooms were clean, modern and stylish. They were comfortable and very quiet. The bed was a tad hard for my personal preference but still pleasant.  The main lounge area was very nice and the breakfast was quite good. I would stay here again. The surrounding area is what you might expect around a major city.  Pretty much close proximity to any major shopping and walking distance to restaurants.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r129992128-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>129992128</t>
@@ -628,10 +895,7 @@
     <t>March 2012</t>
   </si>
   <si>
-    <t>Hallie L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r124729736-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r124729736-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>124729736</t>
@@ -649,10 +913,7 @@
     <t>January 2012</t>
   </si>
   <si>
-    <t>Jesse S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r122997463-Americas_Best_Value_Inn_South_Gate-South_Gate_California.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33113-d1209358-r122997463-SureStay_Hotel_by_Best_Western_South_Gate-South_Gate_California.html</t>
   </si>
   <si>
     <t>122997463</t>
@@ -1169,87 +1430,87 @@
       <c r="A2" t="n">
         <v>46229</v>
       </c>
-      <c r="B2" t="n">
-        <v>150071</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>46229</v>
       </c>
-      <c r="B3" t="n">
-        <v>150072</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
       </c>
       <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
       </c>
       <c r="I3" t="s">
         <v>58</v>
@@ -1264,93 +1525,83 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
         <v>64</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>46229</v>
       </c>
-      <c r="B4" t="n">
-        <v>150073</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>62</v>
-      </c>
       <c r="O4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>4</v>
@@ -1359,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
         <v>74</v>
@@ -1372,181 +1623,167 @@
       <c r="A5" t="n">
         <v>46229</v>
       </c>
-      <c r="B5" t="n">
-        <v>150074</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>78</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>80</v>
       </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>81</v>
-      </c>
       <c r="O5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
+        <v>73</v>
+      </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>46229</v>
       </c>
-      <c r="B6" t="n">
-        <v>150075</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>86</v>
-      </c>
-      <c r="J6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" t="s">
-        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="N6" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" t="s">
-        <v>63</v>
-      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>46229</v>
       </c>
-      <c r="B7" t="n">
-        <v>30172</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
         <v>93</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>94</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>95</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>96</v>
-      </c>
-      <c r="L7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" t="s">
-        <v>82</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1563,36 +1800,36 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>46229</v>
       </c>
-      <c r="B8" t="n">
-        <v>53311</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
         <v>100</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
       </c>
       <c r="I8" t="s">
         <v>101</v>
@@ -1607,82 +1844,80 @@
         <v>104</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>46229</v>
       </c>
-      <c r="B9" t="n">
-        <v>123</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
         <v>111</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" t="s">
-        <v>114</v>
-      </c>
-      <c r="L9" t="s">
-        <v>115</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>116</v>
-      </c>
       <c r="O9" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1693,144 +1928,128 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>117</v>
-      </c>
-      <c r="X9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>46229</v>
       </c>
-      <c r="B10" t="n">
-        <v>150076</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>117</v>
-      </c>
-      <c r="X10" t="s">
-        <v>108</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>46229</v>
       </c>
-      <c r="B11" t="n">
-        <v>123</v>
-      </c>
-      <c r="C11" t="s">
-        <v>110</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>106</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1838,70 +2057,62 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>46229</v>
       </c>
-      <c r="B12" t="n">
-        <v>16153</v>
-      </c>
-      <c r="C12" t="s">
-        <v>134</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
         <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1909,266 +2120,230 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>46229</v>
       </c>
-      <c r="B13" t="n">
-        <v>150077</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>46229</v>
       </c>
-      <c r="B14" t="n">
-        <v>150078</v>
-      </c>
-      <c r="C14" t="s">
-        <v>146</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="N14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>46229</v>
       </c>
-      <c r="B15" t="n">
-        <v>99563</v>
-      </c>
-      <c r="C15" t="s">
-        <v>153</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>159</v>
-      </c>
-      <c r="O15" t="s">
-        <v>106</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>46229</v>
       </c>
-      <c r="B16" t="n">
-        <v>31516</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -2177,215 +2352,193 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="X16" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>46229</v>
       </c>
-      <c r="B17" t="n">
-        <v>150079</v>
-      </c>
-      <c r="C17" t="s">
-        <v>170</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
+        <v>159</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" t="s">
+        <v>161</v>
+      </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>46229</v>
       </c>
-      <c r="B18" t="n">
-        <v>150080</v>
-      </c>
-      <c r="C18" t="s">
-        <v>176</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>106</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
         <v>2</v>
       </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="n">
         <v>2</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="X18" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="Y18" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>46229</v>
       </c>
-      <c r="B19" t="n">
-        <v>150081</v>
-      </c>
-      <c r="C19" t="s">
-        <v>186</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="O19" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
       </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>5</v>
@@ -2393,58 +2546,54 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>169</v>
+      </c>
+      <c r="X19" t="s">
+        <v>161</v>
+      </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>46229</v>
       </c>
-      <c r="B20" t="n">
-        <v>9230</v>
-      </c>
-      <c r="C20" t="s">
-        <v>195</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
-      <c r="N20" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" t="s">
-        <v>82</v>
-      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
       <c r="P20" t="n">
         <v>5</v>
       </c>
@@ -2455,7 +2604,7 @@
         <v>5</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
@@ -2467,66 +2616,58 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>46229</v>
       </c>
-      <c r="B21" t="n">
-        <v>150082</v>
-      </c>
-      <c r="C21" t="s">
-        <v>202</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -2538,54 +2679,46 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>46229</v>
       </c>
-      <c r="B22" t="n">
-        <v>79123</v>
-      </c>
-      <c r="C22" t="s">
-        <v>209</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
-      </c>
-      <c r="K22" t="s">
-        <v>213</v>
-      </c>
-      <c r="L22" t="s">
-        <v>214</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2608,8 +2741,1068 @@
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
-      <c r="Y22" t="s">
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s">
         <v>214</v>
+      </c>
+      <c r="L25" t="s">
+        <v>215</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>217</v>
+      </c>
+      <c r="X25" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s">
+        <v>224</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" t="s">
+        <v>228</v>
+      </c>
+      <c r="K27" t="s">
+        <v>229</v>
+      </c>
+      <c r="L27" t="s">
+        <v>230</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>231</v>
+      </c>
+      <c r="O27" t="s">
+        <v>159</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" t="s">
+        <v>236</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>237</v>
+      </c>
+      <c r="O28" t="s">
+        <v>159</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>238</v>
+      </c>
+      <c r="X28" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>242</v>
+      </c>
+      <c r="J29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K29" t="s">
+        <v>244</v>
+      </c>
+      <c r="L29" t="s">
+        <v>245</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>246</v>
+      </c>
+      <c r="O29" t="s">
+        <v>96</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>248</v>
+      </c>
+      <c r="J30" t="s">
+        <v>249</v>
+      </c>
+      <c r="K30" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" t="s">
+        <v>251</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>252</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>253</v>
+      </c>
+      <c r="J31" t="s">
+        <v>254</v>
+      </c>
+      <c r="K31" t="s">
+        <v>255</v>
+      </c>
+      <c r="L31" t="s">
+        <v>256</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>258</v>
+      </c>
+      <c r="J32" t="s">
+        <v>259</v>
+      </c>
+      <c r="K32" t="s">
+        <v>260</v>
+      </c>
+      <c r="L32" t="s">
+        <v>261</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>262</v>
+      </c>
+      <c r="O32" t="s">
+        <v>159</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>263</v>
+      </c>
+      <c r="X32" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>266</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J33" t="s">
+        <v>268</v>
+      </c>
+      <c r="K33" t="s">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s">
+        <v>270</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>271</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>273</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>274</v>
+      </c>
+      <c r="J34" t="s">
+        <v>275</v>
+      </c>
+      <c r="K34" t="s">
+        <v>276</v>
+      </c>
+      <c r="L34" t="s">
+        <v>277</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>278</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>280</v>
+      </c>
+      <c r="J35" t="s">
+        <v>281</v>
+      </c>
+      <c r="K35" t="s">
+        <v>282</v>
+      </c>
+      <c r="L35" t="s">
+        <v>283</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>284</v>
+      </c>
+      <c r="O35" t="s">
+        <v>96</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>286</v>
+      </c>
+      <c r="J36" t="s">
+        <v>287</v>
+      </c>
+      <c r="K36" t="s">
+        <v>288</v>
+      </c>
+      <c r="L36" t="s">
+        <v>289</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>290</v>
+      </c>
+      <c r="O36" t="s">
+        <v>125</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>292</v>
+      </c>
+      <c r="J37" t="s">
+        <v>293</v>
+      </c>
+      <c r="K37" t="s">
+        <v>294</v>
+      </c>
+      <c r="L37" t="s">
+        <v>295</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>296</v>
+      </c>
+      <c r="O37" t="s">
+        <v>96</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>46229</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>297</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>298</v>
+      </c>
+      <c r="J38" t="s">
+        <v>299</v>
+      </c>
+      <c r="K38" t="s">
+        <v>300</v>
+      </c>
+      <c r="L38" t="s">
+        <v>301</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>296</v>
+      </c>
+      <c r="O38" t="s">
+        <v>96</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
